--- a/ml_lab/data/td_iia.xlsx
+++ b/ml_lab/data/td_iia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
   <si>
     <t>Feature</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>Quero marcar uma consulta para um procedimento de rejuvenescimento facial.</t>
+  </si>
+  <si>
+    <t>Quero cortar o cabelo</t>
+  </si>
+  <si>
+    <t>Quero fazer a barba</t>
   </si>
 </sst>
 </file>
@@ -2426,6 +2432,22 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ml_lab/data/td_iia.xlsx
+++ b/ml_lab/data/td_iia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
   <si>
     <t>Feature</t>
   </si>
@@ -605,6 +605,72 @@
   </si>
   <si>
     <t>Quero fazer a barba</t>
+  </si>
+  <si>
+    <t>Tive um imprevisto e não poderei comparecer à minha consulta amanhã. Poderia remarcar para outro dia?</t>
+  </si>
+  <si>
+    <t>Preciso reagendar meu procedimento odontológico marcado para sexta-feira. Quais horários estão disponíveis?</t>
+  </si>
+  <si>
+    <t>Infelizmente não conseguirei ir à consulta no dia 15. Poderia remarcar para a semana seguinte?</t>
+  </si>
+  <si>
+    <t>Gostaria de reagendar minha limpeza dental. Teria um horário disponível na próxima terça ou quinta?</t>
+  </si>
+  <si>
+    <t>Preciso remarcar minha consulta com o dentista, pois surgiu um compromisso urgente. Quando posso reagendar?</t>
+  </si>
+  <si>
+    <t>Marquei uma extração para amanhã, mas preciso adiar. Pode me informar as próximas datas disponíveis?</t>
+  </si>
+  <si>
+    <t>Tive um contratempo e não poderei comparecer ao meu atendimento odontológico. Pode remarcar para outro dia?</t>
+  </si>
+  <si>
+    <t>Não poderei ir à minha consulta de canal na data agendada. Poderia remarcar para a próxima semana?</t>
+  </si>
+  <si>
+    <t>Gostaria de remarcar minha consulta com o ortodontista. Quais são os horários disponíveis para a próxima segunda?</t>
+  </si>
+  <si>
+    <t>Preciso mudar a data da minha manutenção do aparelho. Tem algum horário livre ainda esta semana?</t>
+  </si>
+  <si>
+    <t>Queria remarcar a reunião</t>
+  </si>
+  <si>
+    <t>Gostaria de agendar uma consulta odontológica. Quais horários estão disponíveis?</t>
+  </si>
+  <si>
+    <t>Preciso marcar uma limpeza dental para a próxima semana. Pode verificar a disponibilidade?</t>
+  </si>
+  <si>
+    <t>Quero agendar uma consulta com o dentista o mais breve possível. Tem algum horário livre?</t>
+  </si>
+  <si>
+    <t>Gostaria de marcar um horário para avaliação ortodôntica. Quais são as opções?</t>
+  </si>
+  <si>
+    <t>Preciso agendar um procedimento odontológico. Pode me informar as datas disponíveis?</t>
+  </si>
+  <si>
+    <t>Gostaria de marcar uma consulta para tratar uma dor de dente. Há algum horário urgente?</t>
+  </si>
+  <si>
+    <t>Quero agendar uma consulta para manutenção do meu aparelho. Quando posso ir?</t>
+  </si>
+  <si>
+    <t>Preciso marcar uma extração dentária. Tem horários disponíveis para esta semana?</t>
+  </si>
+  <si>
+    <t>Gostaria de agendar um clareamento dental. Pode me informar as datas disponíveis?</t>
+  </si>
+  <si>
+    <t>Preciso marcar uma consulta para avaliar um problema gengival. Quando posso agendar?</t>
+  </si>
+  <si>
+    <t>Quero marcar um check-up odontológico. Há horários disponíveis para este mês?</t>
   </si>
 </sst>
 </file>
@@ -861,7 +927,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.0"/>
+    <col customWidth="1" min="1" max="1" width="87.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2448,6 +2514,182 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ml_lab/data/td_iia.xlsx
+++ b/ml_lab/data/td_iia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="227">
   <si>
     <t>Feature</t>
   </si>
@@ -671,13 +671,34 @@
   </si>
   <si>
     <t>Quero marcar um check-up odontológico. Há horários disponíveis para este mês?</t>
+  </si>
+  <si>
+    <t>Quero agendar uma consulta</t>
+  </si>
+  <si>
+    <t>Eu gostaria de agendar uma consulta para meu filho</t>
+  </si>
+  <si>
+    <t>Limpeza , queria para o dia 10 de março</t>
+  </si>
+  <si>
+    <t>Quero agendar</t>
+  </si>
+  <si>
+    <t>Quero remarcar a minha consulta</t>
+  </si>
+  <si>
+    <t>Eu queria remarcar a consulta do meu filho</t>
+  </si>
+  <si>
+    <t>Quero remarcar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -689,6 +710,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -698,18 +724,50 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2690,6 +2748,122 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="6"/>
+      <c r="B228" s="7"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="6"/>
+      <c r="B229" s="7"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="6"/>
+      <c r="B230" s="7"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="6"/>
+      <c r="B231" s="7"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="6"/>
+      <c r="B232" s="7"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="6"/>
+      <c r="B233" s="7"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="6"/>
+      <c r="B234" s="7"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="6"/>
+      <c r="B235" s="7"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="6"/>
+      <c r="B236" s="7"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="6"/>
+      <c r="B237" s="7"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="6"/>
+      <c r="B238" s="7"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="6"/>
+      <c r="B239" s="7"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="6"/>
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="6"/>
+      <c r="B241" s="7"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="6"/>
+      <c r="B242" s="7"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
